--- a/biology/Zoologie/Crystal_(singe)/Crystal_(singe).xlsx
+++ b/biology/Zoologie/Crystal_(singe)/Crystal_(singe).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crystal, ou Crystal the Monkey[1], en français : Crystal le singe, née le 6 mai 1994, est un singe capucin femelle et actrice de cinéma mais aussi de télévision. Elle appartient à la société Birds &amp; Animals Unlimited, le plus grand fournisseur hollywoodien d'animaux, qui l'a formée.
-Sa carrière d'actrice débute dans le film George de la jungle sorti en 1997[2]. Elle joue ensuite le singe Dexter dans La Nuit au musée et un singe trafiquant de drogue dans Very Bad Trip 2. En 2012, elle joue le rôle du Dr Rizzo dans la série télévisée Animal Practice. Elle a également joué dans les films American Pie, 3 h 10 pour Yuma, Dr. Dolittle, Zookeeper, Nouveau Départ[3] et plus récemment dans The Fabelmans.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crystal, ou Crystal the Monkey, en français : Crystal le singe, née le 6 mai 1994, est un singe capucin femelle et actrice de cinéma mais aussi de télévision. Elle appartient à la société Birds &amp; Animals Unlimited, le plus grand fournisseur hollywoodien d'animaux, qui l'a formée.
+Sa carrière d'actrice débute dans le film George de la jungle sorti en 1997. Elle joue ensuite le singe Dexter dans La Nuit au musée et un singe trafiquant de drogue dans Very Bad Trip 2. En 2012, elle joue le rôle du Dr Rizzo dans la série télévisée Animal Practice. Elle a également joué dans les films American Pie, 3 h 10 pour Yuma, Dr. Dolittle, Zookeeper, Nouveau Départ et plus récemment dans The Fabelmans.
 </t>
         </is>
       </c>
@@ -514,9 +526,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Universal Studios
-En 1996, Birds &amp; Animals Unlimited, le plus grand fournisseur d'animaux à Hollywood[4], envoie un de ses entraîneurs acheter un singe capucin en Floride[3]. Birds &amp; Animals préfère commencer à entraîner des singes jeunes, idéalement ceux qui ont près d'un an. Crystal, âgée de deux ans et demi, est proposée. L'entraîneur se décide finalement d'acheter à la fois Crystal et deux singes capucins plus jeunes qui sont remis à trois employés : Crystal est donnée à Tom Gunderson (en), un employé présent dans l'entreprise depuis quelques années et qui travaille principalement aux spectacles animaliers d'Universal Studios Florida. Il la baptise Crystal, en référence à la chanteuse de musique country Crystal Gayle. Benjamin Wallace, du magazine New York, écrit sur Crystal : « C'est comme si elle était née pour jouer. »[3].
-Gunderson et Crystal travaillent ensemble pendant huit ans au spectacle Animal Actors. Du fait que le spectacle est pyrotechnique et qu'il y a un public bruyant et enthousiaste, Gunderson considère que c'est « un camp d'entraînement » et « une excellente façon pour un singe de grandir et de s'habituer à ce genre d'environnement ». Contrairement à la majorité des singes qui étaient dérangés par la musique et les enfants, Crystal est remarquablement mature. Plutôt que de détruire un animal en peluche comme n'importe quel autre singe, elle préfère se toiletter et jouer avec les leviers de son centre d'activités pour enfant[3]. Crystal est surnommée par USA Today comme étant « le singe le plus chaud d'Hollywood » tandis que le Los Angeles Times l'appelle « l'animal de compagnie le plus puissant d'Hollywood »[3].
+          <t>Universal Studios</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1996, Birds &amp; Animals Unlimited, le plus grand fournisseur d'animaux à Hollywood, envoie un de ses entraîneurs acheter un singe capucin en Floride. Birds &amp; Animals préfère commencer à entraîner des singes jeunes, idéalement ceux qui ont près d'un an. Crystal, âgée de deux ans et demi, est proposée. L'entraîneur se décide finalement d'acheter à la fois Crystal et deux singes capucins plus jeunes qui sont remis à trois employés : Crystal est donnée à Tom Gunderson (en), un employé présent dans l'entreprise depuis quelques années et qui travaille principalement aux spectacles animaliers d'Universal Studios Florida. Il la baptise Crystal, en référence à la chanteuse de musique country Crystal Gayle. Benjamin Wallace, du magazine New York, écrit sur Crystal : « C'est comme si elle était née pour jouer. ».
+Gunderson et Crystal travaillent ensemble pendant huit ans au spectacle Animal Actors. Du fait que le spectacle est pyrotechnique et qu'il y a un public bruyant et enthousiaste, Gunderson considère que c'est « un camp d'entraînement » et « une excellente façon pour un singe de grandir et de s'habituer à ce genre d'environnement ». Contrairement à la majorité des singes qui étaient dérangés par la musique et les enfants, Crystal est remarquablement mature. Plutôt que de détruire un animal en peluche comme n'importe quel autre singe, elle préfère se toiletter et jouer avec les leviers de son centre d'activités pour enfant. Crystal est surnommée par USA Today comme étant « le singe le plus chaud d'Hollywood » tandis que le Los Angeles Times l'appelle « l'animal de compagnie le plus puissant d'Hollywood ».
 </t>
         </is>
       </c>
@@ -545,9 +562,11 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crystal vit avec son entraîneur, Tom Gunderson, dans le comté de Los Angeles, en Californie. D'autres animaux vivent également avec elle, notamment des chiens, des chevaux, un chat et une autre capucine, appelée Squirt. Crystal, qui dort pas moins de huit heures par jour, partage le lit avec Gunderson, sa femme, Squirt et un chihuahua[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crystal vit avec son entraîneur, Tom Gunderson, dans le comté de Los Angeles, en Californie. D'autres animaux vivent également avec elle, notamment des chiens, des chevaux, un chat et une autre capucine, appelée Squirt. Crystal, qui dort pas moins de huit heures par jour, partage le lit avec Gunderson, sa femme, Squirt et un chihuahua.
 </t>
         </is>
       </c>
@@ -576,7 +595,9 @@
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 1997 : George de la jungle
